--- a/similarities/split_global/harmonic_similarity_timestamps_316.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_316.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,46 +484,56 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
+          <t>['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
+          <t>['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:06.360000')]</t>
+          <t>('0:04:01.220000', '0:04:15.460000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:22.820000', '0:00:26.720000')]</t>
+          <t>('0:00:20.420000', '0:00:24.160000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=241.22</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=22.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=20.42</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -532,666 +542,672 @@
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'A'], ['A', 'D', 'A']]</t>
+          <t>['E', 'A/3', 'E/5', 'A/3']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:05.640000', '0:01:10.540000'), ('0:00:18.320000', '0:00:25.820000')]</t>
+          <t>('0:00:08.900000', '0:00:11.160000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:43.926916', '0:00:50.765192'), ('0:00:28.450816', '0:00:40.095623')]</t>
+          <t>('0:00:47.176000', '0:00:54.592000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=65.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=8.9</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=43.926916', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=28.450816']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=47.176</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>isophonics_292</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['E', 'D/2', 'A/5']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['Bb/3', 'Ab/5', 'Eb:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:18.320000', '0:00:25.820000')]</t>
+          <t>('0:00:01.701428', '0:00:04.778072')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:00.866546', '0:00:12.917702')]</t>
+          <t>('0:03:26.313000', '0:03:27.541000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-292#t=1.701428</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=0.866546']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=206.313</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_119</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>isophonics_162</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/F#', 'A:min/E']]</t>
+          <t>['G:7', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Bb', 'F:min']]</t>
+          <t>['A:7', 'D', 'A']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:22.520000', '0:01:25.320000')]</t>
+          <t>('0:00:05.360000', '0:00:11.380000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:08.624535', '0:00:20.350612')]</t>
+          <t>('0:00:43.926916', '0:00:50.765192')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=82.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=5.36</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-282#t=8.624535']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=43.926916</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_276</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>['C:min', 'G:maj/B', 'C:min', 'C:7/A#', 'F:min/G#']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>['B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:09.738333', '0:00:15.380782')]</t>
+          <t>('0:00:13.520000', '0:00:20.380000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:06.536000', '0:00:11.853000')]</t>
+          <t>('0:00:13.480000', '0:00:24.640000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-276#t=9.738333']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=6.536']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=13.48</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>isophonics_167</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_206</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
+          <t>['G/5', 'C/9', 'G']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
+          <t>('0:00:00.727609', '0:00:08.204625')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:22.600000', '0:00:25.720000')]</t>
+          <t>('0:01:15.520000', '0:01:19.700000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=54.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-206#t=22.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['G:7', 'C:maj', 'C:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:13.180000', '0:00:19.520000')]</t>
+          <t>('0:01:07.500000', '0:01:10.300000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:20.220000', '0:01:27.220000')]</t>
+          <t>('0:00:30.740000', '0:00:41.860000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=67.5</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=80.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=30.74</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D#:min', 'E/G#', 'D#:min/A#'], ['F:hdim7/G#', 'A#:7', 'D#:min']]</t>
+          <t>['A', 'D', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:03:19.440000', '0:03:22.060000'), ('0:00:23.840000', '0:00:31.400000')]</t>
+          <t>('0:02:02.780000', '0:02:21.245000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:50.340000', '0:00:52.940000'), ('0:01:48.980000', '0:02:02.260000')]</t>
+          <t>('0:02:09.380000', '0:02:15.340000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=199.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=23.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=122.78</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=50.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=108.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>jaah_54</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['Bb:7', 'Eb', 'Ab:7', 'Eb', 'Eb:7', 'Ab:7']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G:7', 'C', 'F:7', 'C', 'C:7', 'F:7']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.500000'), ('0:01:01.320000', '0:01:03.700000')]</t>
+          <t>('0:00:40.370000', '0:01:05.720000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:38.180000', '0:00:51.980000'), ('0:01:45', '0:01:48.240000')]</t>
+          <t>('0:00:04.100000', '0:00:13.020000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=40.37</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=38.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=4.1</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>isophonics_297</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:min', 'C#:dim7'], ['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['E', 'A/3', 'E/5', 'A/3']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab:min', 'D:dim7'], ['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['D', 'G', 'D', 'G']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:12.860000', '0:00:16.880000'), ('0:00:18.060000', '0:00:20.600000')]</t>
+          <t>('0:00:47.176000', '0:00:54.592000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:10.120000'), ('0:00:15.730000', '0:00:17.850000')]</t>
+          <t>('0:00:01.302038', '0:00:04.917554')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=12.86', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=18.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=47.176</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=6.59', 'https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=15.73']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=1.302038</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:12.280000', '0:00:19.740000'), ('0:00:23.300000', '0:00:29.360000')]</t>
+          <t>('0:00:48.250000', '0:00:59.490000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:11.160000', '0:00:16.300000'), ('0:00:00.660000', '0:00:02.680000')]</t>
+          <t>('0:00:07', '0:00:09.280000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=12.28', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=23.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=48.25</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=0.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=7.0</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>schubert-winterreise_196</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:05.810340', '0:01:11.679931')]</t>
+          <t>('0:00:35.460000', '0:00:50.440000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:16.920000', '0:00:23.900000')]</t>
+          <t>('0:01:53.020000', '0:01:54.760000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=35.46</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=113.02</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:02.300000', '0:00:07.040000')]</t>
+          <t>('0:00:04.840000', '0:00:10.640000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:29.080000', '0:01:38.100000')]</t>
+          <t>('0:00:13.740000', '0:00:22.560000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=2.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=4.84</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=89.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=13.74</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>isophonics_48</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:01.129708', '0:00:06.125260')]</t>
+          <t>('0:01:28.583470', '0:01:38.974002')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:01.920000', '0:00:08.320000')]</t>
+          <t>('0:00:10.460000', '0:00:12.580000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=88.58347</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=10.46</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>isophonics_6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min/b3'], ['E:7', 'A:min', 'D:min']]</t>
+          <t>['B:7', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min/E'], ['E:7', 'A:min', 'D:min']]</t>
+          <t>['A:7', 'D', 'G/5', 'D']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:05.672040', '0:00:08.841564'), ('0:00:20.045192', '0:00:25.141972')]</t>
+          <t>('0:01:05.956303', '0:01:20.538435')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:45.320000', '0:00:51.620000'), ('0:00:07.400000', '0:00:19.820000')]</t>
+          <t>('0:00:18.434000', '0:00:23.353000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=5.67204', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=20.045192']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=65.956303</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=45.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=7.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=18.434</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
